--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Col4a2-Cd93.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>153.7564646666667</v>
+        <v>219.6562143333333</v>
       </c>
       <c r="H2">
-        <v>461.269394</v>
+        <v>658.9686429999999</v>
       </c>
       <c r="I2">
-        <v>0.6211857402155671</v>
+        <v>0.7624705457728591</v>
       </c>
       <c r="J2">
-        <v>0.6211857402155671</v>
+        <v>0.762470545772859</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N2">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O2">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P2">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q2">
-        <v>19678.37829060766</v>
+        <v>46509.3321122683</v>
       </c>
       <c r="R2">
-        <v>177105.4046154689</v>
+        <v>418583.9890104147</v>
       </c>
       <c r="S2">
-        <v>0.2854186658941463</v>
+        <v>0.3592302264602261</v>
       </c>
       <c r="T2">
-        <v>0.2854186658941462</v>
+        <v>0.3592302264602261</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>153.7564646666667</v>
+        <v>219.6562143333333</v>
       </c>
       <c r="H3">
-        <v>461.269394</v>
+        <v>658.9686429999999</v>
       </c>
       <c r="I3">
-        <v>0.6211857402155671</v>
+        <v>0.7624705457728591</v>
       </c>
       <c r="J3">
-        <v>0.6211857402155671</v>
+        <v>0.762470545772859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N3">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P3">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q3">
-        <v>9295.107108834145</v>
+        <v>16771.04381424011</v>
       </c>
       <c r="R3">
-        <v>83655.9639795073</v>
+        <v>150939.394328161</v>
       </c>
       <c r="S3">
-        <v>0.134817871227371</v>
+        <v>0.1295367100267315</v>
       </c>
       <c r="T3">
-        <v>0.134817871227371</v>
+        <v>0.1295367100267314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>153.7564646666667</v>
+        <v>219.6562143333333</v>
       </c>
       <c r="H4">
-        <v>461.269394</v>
+        <v>658.9686429999999</v>
       </c>
       <c r="I4">
-        <v>0.6211857402155671</v>
+        <v>0.7624705457728591</v>
       </c>
       <c r="J4">
-        <v>0.6211857402155671</v>
+        <v>0.762470545772859</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N4">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O4">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P4">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q4">
-        <v>379.7248579726529</v>
+        <v>220.0087625573383</v>
       </c>
       <c r="R4">
-        <v>3417.523721753876</v>
+        <v>1980.078863016045</v>
       </c>
       <c r="S4">
-        <v>0.005507596244408412</v>
+        <v>0.001699310525593617</v>
       </c>
       <c r="T4">
-        <v>0.005507596244408411</v>
+        <v>0.001699310525593617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>153.7564646666667</v>
+        <v>219.6562143333333</v>
       </c>
       <c r="H5">
-        <v>461.269394</v>
+        <v>658.9686429999999</v>
       </c>
       <c r="I5">
-        <v>0.6211857402155671</v>
+        <v>0.7624705457728591</v>
       </c>
       <c r="J5">
-        <v>0.6211857402155671</v>
+        <v>0.762470545772859</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N5">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P5">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q5">
-        <v>4344.820093535748</v>
+        <v>5652.604244689921</v>
       </c>
       <c r="R5">
-        <v>39103.38084182173</v>
+        <v>50873.43820220929</v>
       </c>
       <c r="S5">
-        <v>0.06301803615793583</v>
+        <v>0.04365976054028015</v>
       </c>
       <c r="T5">
-        <v>0.06301803615793582</v>
+        <v>0.04365976054028015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.7564646666667</v>
+        <v>219.6562143333333</v>
       </c>
       <c r="H6">
-        <v>461.269394</v>
+        <v>658.9686429999999</v>
       </c>
       <c r="I6">
-        <v>0.6211857402155671</v>
+        <v>0.7624705457728591</v>
       </c>
       <c r="J6">
-        <v>0.6211857402155671</v>
+        <v>0.762470545772859</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N6">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O6">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P6">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q6">
-        <v>9130.030478212859</v>
+        <v>29563.63685969971</v>
       </c>
       <c r="R6">
-        <v>82170.27430391572</v>
+        <v>266072.7317372974</v>
       </c>
       <c r="S6">
-        <v>0.1324235706917056</v>
+        <v>0.2283445382200278</v>
       </c>
       <c r="T6">
-        <v>0.1324235706917056</v>
+        <v>0.2283445382200278</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>96.22743499999999</v>
       </c>
       <c r="I7">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="J7">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N7">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O7">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P7">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q7">
-        <v>4105.192957729294</v>
+        <v>6791.633836098496</v>
       </c>
       <c r="R7">
-        <v>36946.73661956365</v>
+        <v>61124.70452488647</v>
       </c>
       <c r="S7">
-        <v>0.05954244195988357</v>
+        <v>0.05245743273817156</v>
       </c>
       <c r="T7">
-        <v>0.05954244195988356</v>
+        <v>0.05245743273817156</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>96.22743499999999</v>
       </c>
       <c r="I8">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="J8">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N8">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P8">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q8">
-        <v>1939.093134658259</v>
+        <v>2449.030838811767</v>
       </c>
       <c r="R8">
-        <v>17451.83821192433</v>
+        <v>22041.27754930591</v>
       </c>
       <c r="S8">
-        <v>0.02812494847722373</v>
+        <v>0.01891590059196663</v>
       </c>
       <c r="T8">
-        <v>0.02812494847722372</v>
+        <v>0.01891590059196663</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>96.22743499999999</v>
       </c>
       <c r="I9">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="J9">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N9">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O9">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P9">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q9">
-        <v>79.2160710503322</v>
+        <v>32.12729334439165</v>
       </c>
       <c r="R9">
-        <v>712.9446394529898</v>
+        <v>289.1456400995249</v>
       </c>
       <c r="S9">
-        <v>0.001148963851729244</v>
+        <v>0.0002481457879421064</v>
       </c>
       <c r="T9">
-        <v>0.001148963851729244</v>
+        <v>0.0002481457879421064</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>96.22743499999999</v>
       </c>
       <c r="I10">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="J10">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N10">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P10">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q10">
-        <v>906.3920099095171</v>
+        <v>825.4347354986714</v>
       </c>
       <c r="R10">
-        <v>8157.528089185655</v>
+        <v>7428.912619488044</v>
       </c>
       <c r="S10">
-        <v>0.01314646941048818</v>
+        <v>0.006375518492623286</v>
       </c>
       <c r="T10">
-        <v>0.01314646941048817</v>
+        <v>0.006375518492623286</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>96.22743499999999</v>
       </c>
       <c r="I11">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="J11">
-        <v>0.1295882866217661</v>
+        <v>0.1113415420629845</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N11">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O11">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P11">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q11">
-        <v>1904.655773433445</v>
+        <v>4317.099113136947</v>
       </c>
       <c r="R11">
-        <v>17141.90196090101</v>
+        <v>38853.89201823253</v>
       </c>
       <c r="S11">
-        <v>0.02762546292244138</v>
+        <v>0.03334454445228092</v>
       </c>
       <c r="T11">
-        <v>0.02762546292244137</v>
+        <v>0.03334454445228092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.525532333333333</v>
+        <v>1.911637666666667</v>
       </c>
       <c r="H12">
-        <v>4.576597</v>
+        <v>5.734913000000001</v>
       </c>
       <c r="I12">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="J12">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N12">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O12">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P12">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q12">
-        <v>195.243838462129</v>
+        <v>404.7642876263006</v>
       </c>
       <c r="R12">
-        <v>1757.194546159161</v>
+        <v>3642.878588636705</v>
       </c>
       <c r="S12">
-        <v>0.002831851033400997</v>
+        <v>0.003126330998605187</v>
       </c>
       <c r="T12">
-        <v>0.002831851033400997</v>
+        <v>0.003126330998605187</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.525532333333333</v>
+        <v>1.911637666666667</v>
       </c>
       <c r="H13">
-        <v>4.576597</v>
+        <v>5.734913000000001</v>
       </c>
       <c r="I13">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="J13">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N13">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P13">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q13">
-        <v>92.2236763642051</v>
+        <v>145.9560757792465</v>
       </c>
       <c r="R13">
-        <v>830.0130872778459</v>
+        <v>1313.604682013218</v>
       </c>
       <c r="S13">
-        <v>0.001337628451033915</v>
+        <v>0.00112734007938149</v>
       </c>
       <c r="T13">
-        <v>0.001337628451033914</v>
+        <v>0.00112734007938149</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.525532333333333</v>
+        <v>1.911637666666667</v>
       </c>
       <c r="H14">
-        <v>4.576597</v>
+        <v>5.734913000000001</v>
       </c>
       <c r="I14">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="J14">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N14">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O14">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P14">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q14">
-        <v>3.767532961059777</v>
+        <v>1.914705845121667</v>
       </c>
       <c r="R14">
-        <v>33.90779664953799</v>
+        <v>17.232352606095</v>
       </c>
       <c r="S14">
-        <v>5.464496187529581E-05</v>
+        <v>1.47888645807137E-05</v>
       </c>
       <c r="T14">
-        <v>5.46449618752958E-05</v>
+        <v>1.47888645807137E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.525532333333333</v>
+        <v>1.911637666666667</v>
       </c>
       <c r="H15">
-        <v>4.576597</v>
+        <v>5.734913000000001</v>
       </c>
       <c r="I15">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="J15">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N15">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P15">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q15">
-        <v>43.10819417950678</v>
+        <v>49.19383328946567</v>
       </c>
       <c r="R15">
-        <v>387.973747615561</v>
+        <v>442.744499605191</v>
       </c>
       <c r="S15">
-        <v>0.0006252488436861272</v>
+        <v>0.0003799648601782402</v>
       </c>
       <c r="T15">
-        <v>0.0006252488436861271</v>
+        <v>0.0003799648601782402</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.525532333333333</v>
+        <v>1.911637666666667</v>
       </c>
       <c r="H16">
-        <v>4.576597</v>
+        <v>5.734913000000001</v>
       </c>
       <c r="I16">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="J16">
-        <v>0.00616324610323776</v>
+        <v>0.00663567575106888</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N16">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O16">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P16">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q16">
-        <v>90.58582823836244</v>
+        <v>257.2882445242104</v>
       </c>
       <c r="R16">
-        <v>815.2724541452619</v>
+        <v>2315.594200717893</v>
       </c>
       <c r="S16">
-        <v>0.001313872813241426</v>
+        <v>0.001987250948323249</v>
       </c>
       <c r="T16">
-        <v>0.001313872813241426</v>
+        <v>0.001987250948323249</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>54.77557666666667</v>
+        <v>27.32499833333334</v>
       </c>
       <c r="H17">
-        <v>164.32673</v>
+        <v>81.97499500000001</v>
       </c>
       <c r="I17">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040601</v>
       </c>
       <c r="J17">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040598</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N17">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O17">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P17">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q17">
-        <v>7010.401293172609</v>
+        <v>5785.711213813453</v>
       </c>
       <c r="R17">
-        <v>63093.61163855348</v>
+        <v>52071.40092432107</v>
       </c>
       <c r="S17">
-        <v>0.1016800955307856</v>
+        <v>0.0446878562898871</v>
       </c>
       <c r="T17">
-        <v>0.1016800955307856</v>
+        <v>0.04468785628988708</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>54.77557666666667</v>
+        <v>27.32499833333334</v>
       </c>
       <c r="H18">
-        <v>164.32673</v>
+        <v>81.97499500000001</v>
       </c>
       <c r="I18">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040601</v>
       </c>
       <c r="J18">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040598</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N18">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P18">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q18">
-        <v>3311.372000966682</v>
+        <v>2086.299928564453</v>
       </c>
       <c r="R18">
-        <v>29802.34800870014</v>
+        <v>18776.69935708007</v>
       </c>
       <c r="S18">
-        <v>0.04802872293832476</v>
+        <v>0.01611422830138788</v>
       </c>
       <c r="T18">
-        <v>0.04802872293832475</v>
+        <v>0.01611422830138787</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>54.77557666666667</v>
+        <v>27.32499833333334</v>
       </c>
       <c r="H19">
-        <v>164.32673</v>
+        <v>81.97499500000001</v>
       </c>
       <c r="I19">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040601</v>
       </c>
       <c r="J19">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040598</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N19">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O19">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P19">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q19">
-        <v>135.2765759489355</v>
+        <v>27.36885495565833</v>
       </c>
       <c r="R19">
-        <v>1217.48918354042</v>
+        <v>246.319694600925</v>
       </c>
       <c r="S19">
-        <v>0.001962075292174956</v>
+        <v>0.0002113924134611428</v>
       </c>
       <c r="T19">
-        <v>0.001962075292174956</v>
+        <v>0.0002113924134611427</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>54.77557666666667</v>
+        <v>27.32499833333334</v>
       </c>
       <c r="H20">
-        <v>164.32673</v>
+        <v>81.97499500000001</v>
       </c>
       <c r="I20">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040601</v>
       </c>
       <c r="J20">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040598</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N20">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P20">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q20">
-        <v>1547.837527692166</v>
+        <v>703.1779275352184</v>
       </c>
       <c r="R20">
-        <v>13930.53774922949</v>
+        <v>6328.601347816965</v>
       </c>
       <c r="S20">
-        <v>0.02245010821779205</v>
+        <v>0.005431227555376506</v>
       </c>
       <c r="T20">
-        <v>0.02245010821779204</v>
+        <v>0.005431227555376505</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>54.77557666666667</v>
+        <v>27.32499833333334</v>
       </c>
       <c r="H21">
-        <v>164.32673</v>
+        <v>81.97499500000001</v>
       </c>
       <c r="I21">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040601</v>
       </c>
       <c r="J21">
-        <v>0.2212967579033731</v>
+        <v>0.09485052110040598</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N21">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O21">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P21">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q21">
-        <v>3252.563627243509</v>
+        <v>3677.684832957522</v>
       </c>
       <c r="R21">
-        <v>29273.07264519158</v>
+        <v>33099.16349661769</v>
       </c>
       <c r="S21">
-        <v>0.04717575592429577</v>
+        <v>0.0284058165402934</v>
       </c>
       <c r="T21">
-        <v>0.04717575592429576</v>
+        <v>0.02840581654029339</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>4.114076666666667</v>
+        <v>5.760345</v>
       </c>
       <c r="H22">
-        <v>12.34223</v>
+        <v>17.281035</v>
       </c>
       <c r="I22">
-        <v>0.01662112721586895</v>
+        <v>0.0199953067994009</v>
       </c>
       <c r="J22">
-        <v>0.01662112721586895</v>
+        <v>0.01999530679940089</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N22">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O22">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P22">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q22">
-        <v>526.53628020611</v>
+        <v>1219.677756440275</v>
       </c>
       <c r="R22">
-        <v>4738.82652185499</v>
+        <v>10977.09980796248</v>
       </c>
       <c r="S22">
-        <v>0.007636974979438388</v>
+        <v>0.009420585004250491</v>
       </c>
       <c r="T22">
-        <v>0.007636974979438388</v>
+        <v>0.009420585004250489</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>4.114076666666667</v>
+        <v>5.760345</v>
       </c>
       <c r="H23">
-        <v>12.34223</v>
+        <v>17.281035</v>
       </c>
       <c r="I23">
-        <v>0.01662112721586895</v>
+        <v>0.0199953067994009</v>
       </c>
       <c r="J23">
-        <v>0.01662112721586895</v>
+        <v>0.01999530679940089</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N23">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P23">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q23">
-        <v>248.7100841810156</v>
+        <v>439.8099943283901</v>
       </c>
       <c r="R23">
-        <v>2238.39075762914</v>
+        <v>3958.28994895551</v>
       </c>
       <c r="S23">
-        <v>0.003607334881617129</v>
+        <v>0.003397018118443002</v>
       </c>
       <c r="T23">
-        <v>0.003607334881617128</v>
+        <v>0.003397018118443001</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>4.114076666666667</v>
+        <v>5.760345</v>
       </c>
       <c r="H24">
-        <v>12.34223</v>
+        <v>17.281035</v>
       </c>
       <c r="I24">
-        <v>0.01662112721586895</v>
+        <v>0.0199953067994009</v>
       </c>
       <c r="J24">
-        <v>0.01662112721586895</v>
+        <v>0.01999530679940089</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N24">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O24">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P24">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q24">
-        <v>10.16033492526889</v>
+        <v>5.769590353725</v>
       </c>
       <c r="R24">
-        <v>91.44301432741999</v>
+        <v>51.926313183525</v>
       </c>
       <c r="S24">
-        <v>0.0001473672879229113</v>
+        <v>4.456334148915141E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001473672879229113</v>
+        <v>4.45633414891514E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>4.114076666666667</v>
+        <v>5.760345</v>
       </c>
       <c r="H25">
-        <v>12.34223</v>
+        <v>17.281035</v>
       </c>
       <c r="I25">
-        <v>0.01662112721586895</v>
+        <v>0.0199953067994009</v>
       </c>
       <c r="J25">
-        <v>0.01662112721586895</v>
+        <v>0.01999530679940089</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N25">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P25">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q25">
-        <v>116.2547734589989</v>
+        <v>148.235963624805</v>
       </c>
       <c r="R25">
-        <v>1046.29296113099</v>
+        <v>1334.123672623245</v>
       </c>
       <c r="S25">
-        <v>0.001686179717376957</v>
+        <v>0.001144949548059452</v>
       </c>
       <c r="T25">
-        <v>0.001686179717376957</v>
+        <v>0.001144949548059452</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>4.114076666666667</v>
+        <v>5.760345</v>
       </c>
       <c r="H26">
-        <v>12.34223</v>
+        <v>17.281035</v>
       </c>
       <c r="I26">
-        <v>0.01662112721586895</v>
+        <v>0.0199953067994009</v>
       </c>
       <c r="J26">
-        <v>0.01662112721586895</v>
+        <v>0.01999530679940089</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N26">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O26">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P26">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q26">
-        <v>244.2931127338422</v>
+        <v>775.287638838015</v>
       </c>
       <c r="R26">
-        <v>2198.63801460458</v>
+        <v>6977.588749542135</v>
       </c>
       <c r="S26">
-        <v>0.003543270349513564</v>
+        <v>0.005988190787158804</v>
       </c>
       <c r="T26">
-        <v>0.003543270349513562</v>
+        <v>0.005988190787158803</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.273456</v>
+        <v>1.355845</v>
       </c>
       <c r="H27">
-        <v>3.820368</v>
+        <v>4.067534999999999</v>
       </c>
       <c r="I27">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="J27">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>127.984071</v>
+        <v>211.7369283333333</v>
       </c>
       <c r="N27">
-        <v>383.952213</v>
+        <v>635.210785</v>
       </c>
       <c r="O27">
-        <v>0.4594739502473106</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="P27">
-        <v>0.4594739502473105</v>
+        <v>0.471139807893958</v>
       </c>
       <c r="Q27">
-        <v>162.982083119376</v>
+        <v>287.0824555961083</v>
       </c>
       <c r="R27">
-        <v>1466.838748074384</v>
+        <v>2583.742100364975</v>
       </c>
       <c r="S27">
-        <v>0.002363920849655782</v>
+        <v>0.00221737640281754</v>
       </c>
       <c r="T27">
-        <v>0.002363920849655782</v>
+        <v>0.00221737640281754</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.273456</v>
+        <v>1.355845</v>
       </c>
       <c r="H28">
-        <v>3.820368</v>
+        <v>4.067534999999999</v>
       </c>
       <c r="I28">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="J28">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.45343933333334</v>
+        <v>76.35132866666667</v>
       </c>
       <c r="N28">
-        <v>181.360318</v>
+        <v>229.053986</v>
       </c>
       <c r="O28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="P28">
-        <v>0.2170331070069088</v>
+        <v>0.1698907724959131</v>
       </c>
       <c r="Q28">
-        <v>76.98479503966935</v>
+        <v>103.5205672160567</v>
       </c>
       <c r="R28">
-        <v>692.8631553570241</v>
+        <v>931.6851049445099</v>
       </c>
       <c r="S28">
-        <v>0.001116601031338249</v>
+        <v>0.0007995753780025937</v>
       </c>
       <c r="T28">
-        <v>0.001116601031338248</v>
+        <v>0.0007995753780025936</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.273456</v>
+        <v>1.355845</v>
       </c>
       <c r="H29">
-        <v>3.820368</v>
+        <v>4.067534999999999</v>
       </c>
       <c r="I29">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="J29">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.469651333333333</v>
+        <v>1.001605</v>
       </c>
       <c r="N29">
-        <v>7.408954</v>
+        <v>3.004815</v>
       </c>
       <c r="O29">
-        <v>0.008866263160672584</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="P29">
-        <v>0.008866263160672582</v>
+        <v>0.00222869005893356</v>
       </c>
       <c r="Q29">
-        <v>3.144992308341334</v>
+        <v>1.358021131224999</v>
       </c>
       <c r="R29">
-        <v>28.304930775072</v>
+        <v>12.222190181025</v>
       </c>
       <c r="S29">
-        <v>4.561552256176371E-05</v>
+        <v>1.048912586682889E-05</v>
       </c>
       <c r="T29">
-        <v>4.561552256176371E-05</v>
+        <v>1.048912586682889E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.273456</v>
+        <v>1.355845</v>
       </c>
       <c r="H30">
-        <v>3.820368</v>
+        <v>4.067534999999999</v>
       </c>
       <c r="I30">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="J30">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>28.25780433333334</v>
+        <v>25.733869</v>
       </c>
       <c r="N30">
-        <v>84.77341300000001</v>
+        <v>77.201607</v>
       </c>
       <c r="O30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="P30">
-        <v>0.1014479761497213</v>
+        <v>0.05726091425082595</v>
       </c>
       <c r="Q30">
-        <v>35.98507047510934</v>
+        <v>34.89113761430499</v>
       </c>
       <c r="R30">
-        <v>323.8656342759841</v>
+        <v>314.0202385287449</v>
       </c>
       <c r="S30">
-        <v>0.000521933802442182</v>
+        <v>0.0002694932543083213</v>
       </c>
       <c r="T30">
-        <v>0.0005219338024421819</v>
+        <v>0.0002694932543083213</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.273456</v>
+        <v>1.355845</v>
       </c>
       <c r="H31">
-        <v>3.820368</v>
+        <v>4.067534999999999</v>
       </c>
       <c r="I31">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="J31">
-        <v>0.005144841940187051</v>
+        <v>0.004706408513280663</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>59.37981533333333</v>
+        <v>134.590487</v>
       </c>
       <c r="N31">
-        <v>178.139446</v>
+        <v>403.771461</v>
       </c>
       <c r="O31">
-        <v>0.2131787034353869</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="P31">
-        <v>0.2131787034353868</v>
+        <v>0.2994798153003695</v>
       </c>
       <c r="Q31">
-        <v>75.61758211512534</v>
+        <v>182.483838846515</v>
       </c>
       <c r="R31">
-        <v>680.558239036128</v>
+        <v>1642.354549618635</v>
       </c>
       <c r="S31">
-        <v>0.001096770734189076</v>
+        <v>0.00140947435228538</v>
       </c>
       <c r="T31">
-        <v>0.001096770734189075</v>
+        <v>0.00140947435228538</v>
       </c>
     </row>
   </sheetData>
